--- a/analysis_event.csv_2024-02-26.xlsx
+++ b/analysis_event.csv_2024-02-26.xlsx
@@ -16,13 +16,15 @@
     <sheet name="null_counts" sheetId="7" r:id="rId7"/>
     <sheet name="json_cols" sheetId="8" r:id="rId8"/>
     <sheet name="xml_cols" sheetId="9" r:id="rId9"/>
+    <sheet name="date_cols" sheetId="10" r:id="rId10"/>
+    <sheet name="value_counts" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>event_id</t>
   </si>
@@ -121,6 +123,12 @@
   </si>
   <si>
     <t>col_with_xml_val</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>No date columns on dataset</t>
   </si>
 </sst>
 </file>
@@ -588,6 +596,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
